--- a/data/htdocs/bookmarker/src/image/articles_info.xlsx
+++ b/data/htdocs/bookmarker/src/image/articles_info.xlsx
@@ -44,97 +44,97 @@
     <t>First Post feegeg</t>
   </si>
   <si>
+    <t>first-post</t>
+  </si>
+  <si>
+    <t>This is the first post.wefnew add test</t>
+  </si>
+  <si>
+    <t>2023-02-13 07:12:50</t>
+  </si>
+  <si>
+    <t>2023-02-15 00:53:15</t>
+  </si>
+  <si>
     <t>ddsafiadsofoaudfjoa</t>
   </si>
   <si>
+    <t>dsadfnadsifaiofa_edit__adofoadffdvdojawoefapwoe</t>
+  </si>
+  <si>
+    <t>2023-02-15 02:39:59</t>
+  </si>
+  <si>
+    <t>2023-02-20 21:46:52</t>
+  </si>
+  <si>
     <t>んfしgジェおsrrjごお</t>
   </si>
   <si>
+    <t>nfshigjeosrrjgoo</t>
+  </si>
+  <si>
+    <t>egwegwegdfvdfvdfrジェg０えrgj</t>
+  </si>
+  <si>
+    <t>2023-02-20 21:49:27</t>
+  </si>
+  <si>
+    <t>2023-02-20 22:40:00</t>
+  </si>
+  <si>
     <t>dsfasdfasdf</t>
   </si>
   <si>
+    <t>asdfasdfasdfasdf</t>
+  </si>
+  <si>
+    <t>2023-02-20 21:55:58</t>
+  </si>
+  <si>
     <t>fwefewgwegwe</t>
   </si>
   <si>
+    <t>wegwegwegwegweg</t>
+  </si>
+  <si>
+    <t>2023-02-20 22:39:53</t>
+  </si>
+  <si>
     <t>dsファdファsdgふぁs</t>
   </si>
   <si>
+    <t>dsfadfasdgfas</t>
+  </si>
+  <si>
+    <t>dsgさdgさdがsdがsdgさfgfg</t>
+  </si>
+  <si>
+    <t>2023-02-21 23:03:03</t>
+  </si>
+  <si>
+    <t>2023-02-23 19:33:38</t>
+  </si>
+  <si>
     <t>テスってすとtest</t>
   </si>
   <si>
+    <t>tesuttesutotest</t>
+  </si>
+  <si>
+    <t>testtesttest</t>
+  </si>
+  <si>
+    <t>2023-02-23 18:36:11</t>
+  </si>
+  <si>
     <t>dafojdofdfjasojdf</t>
   </si>
   <si>
-    <t>first-post</t>
-  </si>
-  <si>
-    <t>nfshigjeosrrjgoo</t>
-  </si>
-  <si>
-    <t>dsfadfasdgfas</t>
-  </si>
-  <si>
-    <t>tesuttesutotest</t>
-  </si>
-  <si>
-    <t>This is the first post.wefnew add test</t>
-  </si>
-  <si>
-    <t>dsadfnadsifaiofa_edit__adofoadffdvdojawoefapwoe</t>
-  </si>
-  <si>
-    <t>egwegwegdfvdfvdfrジェg０えrgj</t>
-  </si>
-  <si>
-    <t>asdfasdfasdfasdf</t>
-  </si>
-  <si>
-    <t>wegwegwegwegweg</t>
-  </si>
-  <si>
-    <t>dsgさdgさdがsdがsdgさfgfg</t>
-  </si>
-  <si>
-    <t>testtesttest</t>
-  </si>
-  <si>
     <t>dsajfpadpfpaipdfiapw</t>
   </si>
   <si>
-    <t>2023-02-13 07:12:50</t>
-  </si>
-  <si>
-    <t>2023-02-15 02:39:59</t>
-  </si>
-  <si>
-    <t>2023-02-20 21:49:27</t>
-  </si>
-  <si>
-    <t>2023-02-20 21:55:58</t>
-  </si>
-  <si>
-    <t>2023-02-20 22:39:53</t>
-  </si>
-  <si>
-    <t>2023-02-21 23:03:03</t>
-  </si>
-  <si>
-    <t>2023-02-23 18:36:11</t>
-  </si>
-  <si>
     <t>2023-02-23 19:37:46</t>
-  </si>
-  <si>
-    <t>2023-02-15 00:53:15</t>
-  </si>
-  <si>
-    <t>2023-02-20 21:46:52</t>
-  </si>
-  <si>
-    <t>2023-02-20 22:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-23 19:33:38</t>
   </si>
 </sst>
 </file>
@@ -565,77 +565,77 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -666,54 +666,54 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
